--- a/biology/Zoologie/Cydnus_cristatus/Cydnus_cristatus.xlsx
+++ b/biology/Zoologie/Cydnus_cristatus/Cydnus_cristatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cydnus cristatus est une espèce fossile d'insectes hétéroptères (les punaises) de la famille des Cydnidae et du genre Cydnus.
 </t>
@@ -511,15 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Cydnus cristatus est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse[1],[2]. 
-Famille
-En 1937, cette espèce a été classée dans la famille des Pentatomidae[1].
-Fossiles
-Cet holotype, référencé R923, de l'ère Cénozoïque et de l'époque Oligocène (33,9 à 23,03 Ma), faisait partie de la collection Mieg conservée au musée d'histoire naturelle de Bâle[note 1] et a été trouvée dans des marnes en plaquettes d'âge sannoisien moyen du gisement de Kleinkembs[1]. Cet holotype est complété par un paratype R1009[1].
-Étymologie
-L'épithète spécifique cristatus signifie en latin « huppé ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Cydnus cristatus est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse,. 
 </t>
         </is>
       </c>
@@ -545,18 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Classification</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caractères
-La diagnose de Nicolas Théobald en 1937[1],[note 2] : 
-« Insecte au corps ovoïde, court. Tête presque hexagonale, coins arrondis ; bord postérieur convexe ; bords latéraux saillants et arrondis ; yeux transversaux, de forme ovale ; rostre visible à la face inférieure sous forme de deux traits parallèles ; l'extrémité du rostre atteignant les hanches II ; tête brune. Prothorax échancré à l'avant, pointes antérieures saillantes, bords latéraux convexes ; coins postérieurs arrondis; bords postérieurs presque droits; prothorax élargi en arrière ; deux crêtes transversales sur les côtés un peu en avant du milieu ; mésothorax brun, écusson pas visible. Abdomen arrondi à l'arrière, six segments de plus en plus étroits, surface ventrale bombée ; tache brun foncé en forme de triangle à l'endroit où se place la membrane des hémélytres. Aucune décoration visible. »[1].
-Dimensions
-La longueur totale du corps est de 4,5 mm, la longueur de la tête est de 1 mm et la largeur de 1,5 mm, la longueur du prothorax est de 1,15 mm et la largeur de 2,5 mm[1].
-Affinités
-« Cette espèce se distingue des précédentes par la présence de deux arêtes transversales dans la moitié antérieure du prothorax. »[1].
+          <t>Famille</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1937, cette espèce a été classée dans la famille des Pentatomidae.
 </t>
         </is>
       </c>
@@ -582,13 +590,203 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet holotype, référencé R923, de l'ère Cénozoïque et de l'époque Oligocène (33,9 à 23,03 Ma), faisait partie de la collection Mieg conservée au musée d'histoire naturelle de Bâle[note 1] et a été trouvée dans des marnes en plaquettes d'âge sannoisien moyen du gisement de Kleinkembs. Cet holotype est complété par un paratype R1009.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cydnus_cristatus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cydnus_cristatus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique cristatus signifie en latin « huppé ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cydnus_cristatus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cydnus_cristatus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+La diagnose de Nicolas Théobald en 1937,[note 2] : 
+« Insecte au corps ovoïde, court. Tête presque hexagonale, coins arrondis ; bord postérieur convexe ; bords latéraux saillants et arrondis ; yeux transversaux, de forme ovale ; rostre visible à la face inférieure sous forme de deux traits parallèles ; l'extrémité du rostre atteignant les hanches II ; tête brune. Prothorax échancré à l'avant, pointes antérieures saillantes, bords latéraux convexes ; coins postérieurs arrondis; bords postérieurs presque droits; prothorax élargi en arrière ; deux crêtes transversales sur les côtés un peu en avant du milieu ; mésothorax brun, écusson pas visible. Abdomen arrondi à l'arrière, six segments de plus en plus étroits, surface ventrale bombée ; tache brun foncé en forme de triangle à l'endroit où se place la membrane des hémélytres. Aucune décoration visible. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cydnus_cristatus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cydnus_cristatus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur totale du corps est de 4,5 mm, la longueur de la tête est de 1 mm et la largeur de 1,5 mm, la longueur du prothorax est de 1,15 mm et la largeur de 2,5 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cydnus_cristatus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cydnus_cristatus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+« Cette espèce se distingue des précédentes par la présence de deux arêtes transversales dans la moitié antérieure du prothorax. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cydnus_cristatus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cydnus_cristatus</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">
-« Le g. Cydnus est cosmopolite. »[3].
+« Le g. Cydnus est cosmopolite. ».
 </t>
         </is>
       </c>
